--- a/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Nhập kho/Tháng 11/NKSX_.xlsx
+++ b/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Nhập kho/Tháng 11/NKSX_.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất nhập kho 2025\Nhập kho\Tháng 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất nhập kho 2025\Nhập kho\Tháng 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A917C626-B928-4659-AD20-617517433696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A04135-EFBA-445B-BFC1-BC22776CD42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PhieuXuatKho" sheetId="10" r:id="rId1"/>
+    <sheet name="XuatKho_SX" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PhieuXuatKho!$A$1:$H$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">XuatKho_SX!$A$1:$M$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -31,28 +31,56 @@
     <t>ĐVT</t>
   </si>
   <si>
+    <t>Người Lập</t>
+  </si>
+  <si>
     <t>(Ký, ghi rõ họ tên)</t>
   </si>
   <si>
+    <t>Đơn Giá</t>
+  </si>
+  <si>
+    <t>Thành Tiền</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trần Thị Thu Hà </t>
   </si>
   <si>
+    <t>Đặng Ngọc Mai</t>
+  </si>
+  <si>
+    <t>Đào Văn Thông</t>
+  </si>
+  <si>
     <t>Nguyễn Minh Tùng</t>
   </si>
   <si>
-    <t>Đặng Ngọc Mai</t>
-  </si>
-  <si>
-    <t>Đào Văn Thông</t>
-  </si>
-  <si>
-    <t>Tên Khách hàng:</t>
-  </si>
-  <si>
-    <t>Công Ty CP Điện Tử &amp; Viễn Thông Việt Nam</t>
-  </si>
-  <si>
-    <t>Địa chỉ: A46 TT19 Nguyễn Khuyến, Văn Quán, Hà Đông, Hà Nội</t>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>Kế Toán Kho</t>
+  </si>
+  <si>
+    <t>TP. Kỹ Thuật</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày  tháng   năm 202</t>
+  </si>
+  <si>
+    <t>Họ và tên người đề nghị:.......................................</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Phòngban/ Bộ phận: PKT/ Bảo hành - Sản xuất…..</t>
+  </si>
+  <si>
+    <t>Tên Khách hàng:…...............................................</t>
+  </si>
+  <si>
+    <t>Công Ty Cổ Phần Công Nghệ Điện Tử &amp; Viễn  Thông Việt Nam</t>
   </si>
   <si>
     <t>Điện thoại: 0243 6400 767</t>
@@ -61,58 +89,34 @@
     <t>Website: https://vnetgps.vn/</t>
   </si>
   <si>
-    <t>Phòng ban/ Bộ phận: PKT/ Bảo hành - Sản xuất</t>
-  </si>
-  <si>
-    <t>Mã Thiết Bị</t>
-  </si>
-  <si>
-    <t>Số Lượng / Trọng Lượng</t>
-  </si>
-  <si>
-    <t>Thành Tiền</t>
-  </si>
-  <si>
-    <t>Đơn Giá</t>
+    <t>Ghi Chú</t>
+  </si>
+  <si>
+    <t>Số Lượng/ 
+Trọng Lượng</t>
+  </si>
+  <si>
+    <t>TP. KTTH</t>
+  </si>
+  <si>
+    <t>PHIẾU NHẬP KHO</t>
   </si>
   <si>
     <t>Lý Do Nhập Kho</t>
   </si>
   <si>
-    <t>Ghi Chú</t>
-  </si>
-  <si>
-    <t>Hà Nội, ngày 15, tháng 11, năm 2025</t>
-  </si>
-  <si>
-    <t>Họ và tên người đề nghị:</t>
-  </si>
-  <si>
-    <t>PHIẾU NHẬP KHO</t>
-  </si>
-  <si>
-    <t>TP. Kỹ Thuật</t>
-  </si>
-  <si>
-    <t>Kế Toán Kho</t>
-  </si>
-  <si>
-    <t>Người Lập</t>
-  </si>
-  <si>
-    <t>TP. KTTH</t>
+    <t>Địa chỉ: A46 TT19 Nguyễn Khuyến, P. Văn Quán, Q. Hà Đông, TP. Hà Nội</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="@*."/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -131,6 +135,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -138,11 +148,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -157,20 +162,53 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -181,8 +219,7 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -201,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -339,6 +376,19 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -354,170 +404,174 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -543,23 +597,75 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>488016</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>307038</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo chuan ">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11424957" y="2119033"/>
+          <a:ext cx="1634377" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>160734</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>74721</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>988219</xdr:colOff>
+      <xdr:colOff>937846</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>124810</xdr:rowOff>
+      <xdr:rowOff>59375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9921DC4B-1FE3-4317-A055-B70D76CE0747}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -568,15 +674,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="160734" y="74721"/>
-          <a:ext cx="2167554" cy="693848"/>
+          <a:off x="190500" y="95251"/>
+          <a:ext cx="2242038" cy="469682"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -878,327 +984,364 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="14" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="35" t="s">
+    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="C9" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
         <v>1</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15">
+        <v>2</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15">
+        <v>3</v>
+      </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="47" t="s">
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15">
+        <v>4</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15">
+        <v>5</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="56" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="34"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="21"/>
+    </row>
     <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="H29" s="7"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="H32" s="7"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="8:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H37" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
     <mergeCell ref="D4:H4"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
-  <pageMargins left="1.5" right="2" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Nhập kho/Tháng 11/NKSX_.xlsx
+++ b/2. Báo cáo - giấy tờ/3. Sản xuất/Xuất nhập kho 2025/Nhập kho/Tháng 11/NKSX_.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\3. Sản xuất\Xuất nhập kho 2025\Nhập kho\Tháng 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A04135-EFBA-445B-BFC1-BC22776CD42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320211CA-9D27-4E4C-9C1D-0C91554058D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="XuatKho_SX" sheetId="10" r:id="rId1"/>
+    <sheet name="NhapKho_SX" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">XuatKho_SX!$A$1:$M$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NhapKho_SX!$A$1:$M$24</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
